--- a/tuntilistat.xlsx
+++ b/tuntilistat.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21803"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21714"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\TempUserProfiles\NetworkService\AppData\Local\Packages\oice_16_974fa576_32c1d314_2d45\AC\Temp\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\TempUserProfiles\NetworkService\AppData\Local\Packages\oice_16_974fa576_32c1d314_31cb\AC\Temp\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="151" documentId="11_0C7B0D2AB049D8B0143514B47C17A181B8EA27A1" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{55B30760-4D5D-4392-A9EC-FEF7C296708B}"/>
+  <xr:revisionPtr revIDLastSave="402" documentId="11_0C7B0D2AB049D8B0143514B47C17A181B8EA27A1" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{F1678028-1924-4A82-8AC8-0E40041FA4AD}"/>
   <bookViews>
     <workbookView xWindow="480" yWindow="30" windowWidth="11340" windowHeight="9360" firstSheet="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="34">
   <si>
     <t>Tuntilista</t>
   </si>
@@ -55,9 +55,6 @@
     <t>Toteutuneet tunnit</t>
   </si>
   <si>
-    <t xml:space="preserve">                6/3/2019</t>
-  </si>
-  <si>
     <t>Suunnittelu</t>
   </si>
   <si>
@@ -76,47 +73,71 @@
     <t>Videon käsikirjoitus</t>
   </si>
   <si>
-    <t>30 min</t>
-  </si>
-  <si>
     <t>Toteutus</t>
   </si>
   <si>
     <t>Videon harjoittelua</t>
   </si>
   <si>
-    <t>Videon 1 tekeminen</t>
-  </si>
-  <si>
-    <t>Videon 1 tekeminen valmiiksi</t>
-  </si>
-  <si>
-    <t>1h 30m</t>
-  </si>
-  <si>
-    <t>Videon 2 tekeminen</t>
-  </si>
-  <si>
-    <t>30min</t>
-  </si>
-  <si>
-    <t>Videon 2 tekeminen valmiiksi</t>
-  </si>
-  <si>
     <t>Severi lillkåll</t>
   </si>
   <si>
-    <t xml:space="preserve">Videon 1 Editointi </t>
-  </si>
-  <si>
-    <t>Videon 1 Editointi valmiiksi</t>
+    <t>/6/2019</t>
+  </si>
+  <si>
+    <t>Projektiesitys suunittelu</t>
+  </si>
+  <si>
+    <t>Videon 1 suunittelu</t>
+  </si>
+  <si>
+    <t>Videon 2 suunittelu</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Suunnittelu </t>
+  </si>
+  <si>
+    <t>Esitutkimus</t>
+  </si>
+  <si>
+    <t>Videon editointi harjoittelua</t>
+  </si>
+  <si>
+    <t>Videon 1 editointi</t>
+  </si>
+  <si>
+    <t>Videon 2 editointi</t>
+  </si>
+  <si>
+    <t>Videon 1 Kuvaus</t>
+  </si>
+  <si>
+    <t>Videon 2 Kuvaus</t>
+  </si>
+  <si>
+    <t>Projektiesitys Teko</t>
+  </si>
+  <si>
+    <t>Gantt-Kaavio</t>
+  </si>
+  <si>
+    <t>Videon 3 Suunnittelu</t>
+  </si>
+  <si>
+    <t xml:space="preserve">               14/6/2019 </t>
+  </si>
+  <si>
+    <t>Videon 3 Editointi</t>
+  </si>
+  <si>
+    <t xml:space="preserve">               14/6/2019</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="7">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -244,7 +265,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -273,9 +294,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="14" fontId="3" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -627,13 +645,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E34"/>
+  <dimension ref="A1:E37"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D15" sqref="D15"/>
+      <selection activeCell="A14" sqref="A14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75"/>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="15.7109375" customWidth="1"/>
     <col min="2" max="2" width="19.140625" customWidth="1"/>
@@ -642,7 +660,7 @@
     <col min="5" max="5" width="18" style="10" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="20.25">
+    <row r="1" spans="1:5" ht="20.25" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -650,13 +668,13 @@
       <c r="C1" s="1"/>
       <c r="D1" s="9"/>
     </row>
-    <row r="2" spans="1:5">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" s="1"/>
       <c r="B2" s="1"/>
       <c r="C2" s="1"/>
       <c r="D2" s="9"/>
     </row>
-    <row r="3" spans="1:5">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
@@ -666,13 +684,13 @@
       <c r="C3" s="1"/>
       <c r="D3" s="9"/>
     </row>
-    <row r="4" spans="1:5" ht="13.5" thickBot="1">
+    <row r="4" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A4" s="1"/>
       <c r="B4" s="1"/>
       <c r="C4" s="1"/>
       <c r="D4" s="9"/>
     </row>
-    <row r="5" spans="1:5" ht="13.5" thickTop="1">
+    <row r="5" spans="1:5" ht="13.5" thickTop="1" x14ac:dyDescent="0.2">
       <c r="A5" s="6" t="s">
         <v>3</v>
       </c>
@@ -689,32 +707,32 @@
         <v>7</v>
       </c>
     </row>
-    <row r="6" spans="1:5">
-      <c r="A6" s="16" t="s">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A6" s="15">
+        <v>43530</v>
+      </c>
+      <c r="B6" s="18" t="s">
         <v>8</v>
       </c>
-      <c r="B6" s="19" t="s">
+      <c r="C6" s="18" t="s">
         <v>9</v>
       </c>
-      <c r="C6" s="19" t="s">
+      <c r="D6" s="14" t="s">
         <v>10</v>
       </c>
-      <c r="D6" s="15" t="s">
-        <v>11</v>
-      </c>
-      <c r="E6" s="15" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5">
-      <c r="A7" s="20">
-        <v>43619</v>
-      </c>
-      <c r="B7" s="18" t="s">
-        <v>9</v>
-      </c>
-      <c r="C7" s="18" t="s">
-        <v>12</v>
+      <c r="E6" s="14" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A7" s="19">
+        <v>43530</v>
+      </c>
+      <c r="B7" s="17" t="s">
+        <v>8</v>
+      </c>
+      <c r="C7" s="17" t="s">
+        <v>18</v>
       </c>
       <c r="D7" s="11">
         <v>1</v>
@@ -723,269 +741,320 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:5">
-      <c r="A8" s="13">
-        <v>43619</v>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A8" s="19">
+        <v>43530</v>
       </c>
       <c r="B8" s="17" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C8" s="17" t="s">
-        <v>13</v>
-      </c>
-      <c r="D8" s="12">
-        <v>2</v>
-      </c>
-      <c r="E8" s="12">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5">
+        <v>11</v>
+      </c>
+      <c r="D8" s="11">
+        <v>1</v>
+      </c>
+      <c r="E8" s="11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A9" s="13">
-        <v>43619</v>
-      </c>
-      <c r="B9" s="18" t="s">
-        <v>9</v>
-      </c>
-      <c r="C9" s="18" t="s">
-        <v>14</v>
-      </c>
-      <c r="D9" s="11" t="s">
-        <v>15</v>
-      </c>
-      <c r="E9" s="11" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5">
+        <v>43530</v>
+      </c>
+      <c r="B9" s="16" t="s">
+        <v>8</v>
+      </c>
+      <c r="C9" s="16" t="s">
+        <v>12</v>
+      </c>
+      <c r="D9" s="12">
+        <v>4</v>
+      </c>
+      <c r="E9" s="12">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A10" s="13">
         <v>43561</v>
       </c>
-      <c r="B10" s="17" t="s">
-        <v>16</v>
-      </c>
-      <c r="C10" s="17" t="s">
-        <v>17</v>
-      </c>
-      <c r="D10" s="12" t="s">
-        <v>15</v>
-      </c>
-      <c r="E10" s="12" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5">
+      <c r="B10" s="16" t="s">
+        <v>8</v>
+      </c>
+      <c r="C10" s="16" t="s">
+        <v>12</v>
+      </c>
+      <c r="D10" s="12">
+        <v>4</v>
+      </c>
+      <c r="E10" s="12">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A11" s="13">
         <v>43591</v>
       </c>
-      <c r="B11" s="18" t="s">
-        <v>9</v>
-      </c>
-      <c r="C11" s="18" t="s">
+      <c r="B11" s="16" t="s">
+        <v>8</v>
+      </c>
+      <c r="C11" s="16" t="s">
+        <v>12</v>
+      </c>
+      <c r="D11" s="12">
+        <v>4</v>
+      </c>
+      <c r="E11" s="12">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A12" s="13">
+        <v>43591</v>
+      </c>
+      <c r="B12" s="16" t="s">
+        <v>21</v>
+      </c>
+      <c r="C12" s="16" t="s">
+        <v>22</v>
+      </c>
+      <c r="D12" s="12">
+        <v>2</v>
+      </c>
+      <c r="E12" s="12">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A13" s="13">
+        <v>43622</v>
+      </c>
+      <c r="B13" s="17" t="s">
+        <v>8</v>
+      </c>
+      <c r="C13" s="17" t="s">
         <v>13</v>
       </c>
-      <c r="D11" s="11">
-        <v>3</v>
-      </c>
-      <c r="E11" s="11">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5">
-      <c r="A12" s="13">
-        <v>43652</v>
-      </c>
-      <c r="B12" s="17" t="s">
-        <v>16</v>
-      </c>
-      <c r="C12" s="17" t="s">
-        <v>18</v>
-      </c>
-      <c r="D12" s="12">
+      <c r="D13" s="11">
         <v>1</v>
-      </c>
-      <c r="E12" s="12">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5">
-      <c r="A13" s="13">
-        <v>43683</v>
-      </c>
-      <c r="B13" s="18" t="s">
-        <v>16</v>
-      </c>
-      <c r="C13" s="18" t="s">
-        <v>19</v>
-      </c>
-      <c r="D13" s="11" t="s">
-        <v>20</v>
       </c>
       <c r="E13" s="11">
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:5">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A14" s="13">
-        <v>43744</v>
-      </c>
-      <c r="B14" s="17" t="s">
-        <v>16</v>
-      </c>
-      <c r="C14" s="17" t="s">
-        <v>21</v>
-      </c>
-      <c r="D14" s="12" t="s">
-        <v>22</v>
-      </c>
-      <c r="E14" s="12" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5">
-      <c r="A15" s="13">
-        <v>43744</v>
-      </c>
-      <c r="B15" s="17" t="s">
-        <v>16</v>
-      </c>
-      <c r="C15" s="17" t="s">
-        <v>23</v>
-      </c>
-      <c r="D15" s="12" t="s">
-        <v>22</v>
-      </c>
-      <c r="E15" s="12" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5">
-      <c r="A16" s="13"/>
-      <c r="B16" s="3"/>
-      <c r="C16" s="3"/>
-      <c r="D16" s="12"/>
-      <c r="E16" s="12"/>
-    </row>
-    <row r="17" spans="1:5">
-      <c r="A17" s="13"/>
-      <c r="B17" s="4"/>
-      <c r="C17" s="4"/>
-      <c r="D17" s="11"/>
-      <c r="E17" s="11"/>
-    </row>
-    <row r="18" spans="1:5">
-      <c r="A18" s="13"/>
-      <c r="B18" s="3"/>
-      <c r="C18" s="3"/>
-      <c r="D18" s="12"/>
-      <c r="E18" s="12"/>
-    </row>
-    <row r="19" spans="1:5">
+        <v>43622</v>
+      </c>
+      <c r="B14" s="16" t="s">
+        <v>14</v>
+      </c>
+      <c r="C14" s="16" t="s">
+        <v>15</v>
+      </c>
+      <c r="D14" s="12">
+        <v>1</v>
+      </c>
+      <c r="E14" s="12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A15" s="13" t="s">
+        <v>17</v>
+      </c>
+      <c r="B15" s="16" t="s">
+        <v>14</v>
+      </c>
+      <c r="C15" s="16" t="s">
+        <v>19</v>
+      </c>
+      <c r="D15" s="12">
+        <v>2</v>
+      </c>
+      <c r="E15" s="12">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A16" s="13" t="s">
+        <v>17</v>
+      </c>
+      <c r="B16" s="16" t="s">
+        <v>14</v>
+      </c>
+      <c r="C16" s="16" t="s">
+        <v>26</v>
+      </c>
+      <c r="D16" s="12">
+        <v>1</v>
+      </c>
+      <c r="E16" s="12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A17" s="13" t="s">
+        <v>17</v>
+      </c>
+      <c r="B17" s="16" t="s">
+        <v>14</v>
+      </c>
+      <c r="C17" s="16" t="s">
+        <v>20</v>
+      </c>
+      <c r="D17" s="12">
+        <v>2</v>
+      </c>
+      <c r="E17" s="12">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A18" s="13" t="s">
+        <v>17</v>
+      </c>
+      <c r="B18" s="16" t="s">
+        <v>14</v>
+      </c>
+      <c r="C18" s="16" t="s">
+        <v>27</v>
+      </c>
+      <c r="D18" s="12">
+        <v>1</v>
+      </c>
+      <c r="E18" s="12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A19" s="13"/>
-      <c r="B19" s="4"/>
-      <c r="C19" s="4"/>
-      <c r="D19" s="11"/>
-      <c r="E19" s="11"/>
-    </row>
-    <row r="20" spans="1:5">
+      <c r="B19" s="3"/>
+      <c r="C19" s="3"/>
+      <c r="D19" s="12"/>
+      <c r="E19" s="12"/>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A20" s="13"/>
-      <c r="B20" s="3"/>
-      <c r="C20" s="3"/>
-      <c r="D20" s="12"/>
-      <c r="E20" s="12"/>
-    </row>
-    <row r="21" spans="1:5">
+      <c r="B20" s="4"/>
+      <c r="C20" s="4"/>
+      <c r="D20" s="11"/>
+      <c r="E20" s="11"/>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A21" s="13"/>
-      <c r="B21" s="4"/>
-      <c r="C21" s="4"/>
-      <c r="D21" s="11"/>
-      <c r="E21" s="11"/>
-    </row>
-    <row r="22" spans="1:5">
+      <c r="B21" s="3"/>
+      <c r="C21" s="3"/>
+      <c r="D21" s="12"/>
+      <c r="E21" s="12"/>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A22" s="13"/>
-      <c r="B22" s="3"/>
-      <c r="C22" s="3"/>
-      <c r="D22" s="12"/>
-      <c r="E22" s="12"/>
-    </row>
-    <row r="23" spans="1:5">
+      <c r="B22" s="4"/>
+      <c r="C22" s="4"/>
+      <c r="D22" s="11"/>
+      <c r="E22" s="11"/>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A23" s="13"/>
-      <c r="B23" s="4"/>
-      <c r="C23" s="4"/>
-      <c r="D23" s="11"/>
-      <c r="E23" s="11"/>
-    </row>
-    <row r="24" spans="1:5">
+      <c r="B23" s="3"/>
+      <c r="C23" s="3"/>
+      <c r="D23" s="12"/>
+      <c r="E23" s="12"/>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A24" s="13"/>
-      <c r="B24" s="3"/>
-      <c r="C24" s="3"/>
-      <c r="D24" s="12"/>
-      <c r="E24" s="12"/>
-    </row>
-    <row r="25" spans="1:5">
+      <c r="B24" s="4"/>
+      <c r="C24" s="4"/>
+      <c r="D24" s="11"/>
+      <c r="E24" s="11"/>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A25" s="13"/>
-      <c r="B25" s="4"/>
-      <c r="C25" s="4"/>
-      <c r="D25" s="11"/>
-      <c r="E25" s="11"/>
-    </row>
-    <row r="26" spans="1:5">
+      <c r="B25" s="3"/>
+      <c r="C25" s="3"/>
+      <c r="D25" s="12"/>
+      <c r="E25" s="12"/>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A26" s="13"/>
-      <c r="B26" s="3"/>
-      <c r="C26" s="3"/>
-      <c r="D26" s="12"/>
-      <c r="E26" s="12"/>
-    </row>
-    <row r="27" spans="1:5">
+      <c r="B26" s="4"/>
+      <c r="C26" s="4"/>
+      <c r="D26" s="11"/>
+      <c r="E26" s="11"/>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A27" s="13"/>
-      <c r="B27" s="4"/>
-      <c r="C27" s="4"/>
-      <c r="D27" s="11"/>
-      <c r="E27" s="11"/>
-    </row>
-    <row r="28" spans="1:5">
+      <c r="B27" s="3"/>
+      <c r="C27" s="3"/>
+      <c r="D27" s="12"/>
+      <c r="E27" s="12"/>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A28" s="13"/>
-      <c r="B28" s="3"/>
-      <c r="C28" s="3"/>
-      <c r="D28" s="12"/>
-      <c r="E28" s="12"/>
-    </row>
-    <row r="29" spans="1:5">
+      <c r="B28" s="4"/>
+      <c r="C28" s="4"/>
+      <c r="D28" s="11"/>
+      <c r="E28" s="11"/>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A29" s="13"/>
-      <c r="B29" s="4"/>
-      <c r="C29" s="4"/>
-      <c r="D29" s="11"/>
-      <c r="E29" s="11"/>
-    </row>
-    <row r="30" spans="1:5">
+      <c r="B29" s="3"/>
+      <c r="C29" s="3"/>
+      <c r="D29" s="12"/>
+      <c r="E29" s="12"/>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A30" s="13"/>
-      <c r="B30" s="3"/>
-      <c r="C30" s="3"/>
-      <c r="D30" s="12"/>
-      <c r="E30" s="12"/>
-    </row>
-    <row r="31" spans="1:5">
+      <c r="B30" s="4"/>
+      <c r="C30" s="4"/>
+      <c r="D30" s="11"/>
+      <c r="E30" s="11"/>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A31" s="13"/>
-      <c r="B31" s="4"/>
-      <c r="C31" s="4"/>
-      <c r="D31" s="11"/>
-      <c r="E31" s="11"/>
-    </row>
-    <row r="32" spans="1:5">
+      <c r="B31" s="3"/>
+      <c r="C31" s="3"/>
+      <c r="D31" s="12"/>
+      <c r="E31" s="12"/>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A32" s="13"/>
-      <c r="B32" s="3"/>
-      <c r="C32" s="3"/>
-      <c r="D32" s="12"/>
-      <c r="E32" s="12"/>
-    </row>
-    <row r="33" spans="1:5" ht="13.5" thickBot="1">
+      <c r="B32" s="4"/>
+      <c r="C32" s="4"/>
+      <c r="D32" s="11"/>
+      <c r="E32" s="11"/>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A33" s="13"/>
-      <c r="B33" s="21"/>
-      <c r="C33" s="21"/>
-      <c r="D33" s="11"/>
-      <c r="E33" s="11"/>
-    </row>
-    <row r="34" spans="1:5" ht="13.5" thickTop="1"/>
+      <c r="B33" s="3"/>
+      <c r="C33" s="3"/>
+      <c r="D33" s="12"/>
+      <c r="E33" s="12"/>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A34" s="13"/>
+      <c r="B34" s="4"/>
+      <c r="C34" s="4"/>
+      <c r="D34" s="11"/>
+      <c r="E34" s="11"/>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A35" s="13"/>
+      <c r="B35" s="3"/>
+      <c r="C35" s="3"/>
+      <c r="D35" s="12"/>
+      <c r="E35" s="12"/>
+    </row>
+    <row r="36" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A36" s="13"/>
+      <c r="B36" s="20"/>
+      <c r="C36" s="20"/>
+      <c r="D36" s="11"/>
+      <c r="E36" s="11"/>
+    </row>
+    <row r="37" spans="1:5" ht="13.5" thickTop="1" x14ac:dyDescent="0.2"/>
   </sheetData>
   <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -996,13 +1065,13 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:E35"/>
+  <dimension ref="A1:E34"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E16" sqref="E16"/>
+      <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75"/>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="16.42578125" customWidth="1"/>
     <col min="2" max="2" width="14.28515625" customWidth="1"/>
@@ -1011,25 +1080,25 @@
     <col min="5" max="5" width="18" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="20.25">
+    <row r="1" spans="1:5" ht="20.25" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1"/>
     </row>
-    <row r="2" spans="1:5">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" s="1"/>
       <c r="B2" s="1"/>
     </row>
-    <row r="3" spans="1:5">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" ht="13.5" thickTop="1" x14ac:dyDescent="0.2">
       <c r="A5" s="6" t="s">
         <v>3</v>
       </c>
@@ -1046,275 +1115,338 @@
         <v>7</v>
       </c>
     </row>
-    <row r="6" spans="1:5">
-      <c r="A6" s="16" t="s">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A6" s="19">
+        <v>43530</v>
+      </c>
+      <c r="B6" s="17" t="s">
         <v>8</v>
       </c>
-      <c r="B6" s="14" t="s">
-        <v>9</v>
-      </c>
-      <c r="C6" s="14" t="s">
-        <v>10</v>
-      </c>
-      <c r="D6" s="15" t="s">
-        <v>11</v>
-      </c>
-      <c r="E6" s="15" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5">
+      <c r="C6" s="17" t="s">
+        <v>28</v>
+      </c>
+      <c r="D6" s="11">
+        <v>3</v>
+      </c>
+      <c r="E6" s="11">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A7" s="13">
-        <v>43619</v>
-      </c>
-      <c r="B7" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="C7" s="4" t="s">
+        <v>43530</v>
+      </c>
+      <c r="B7" s="16" t="s">
+        <v>8</v>
+      </c>
+      <c r="C7" s="16" t="s">
         <v>12</v>
       </c>
-      <c r="D7" s="11">
-        <v>1</v>
-      </c>
-      <c r="E7" s="11">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5">
-      <c r="A8" s="13">
-        <v>43619</v>
-      </c>
-      <c r="B8" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="C8" s="3" t="s">
+      <c r="D7" s="12">
+        <v>4</v>
+      </c>
+      <c r="E7" s="12">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A8" s="19">
+        <v>43561</v>
+      </c>
+      <c r="B8" s="16" t="s">
+        <v>8</v>
+      </c>
+      <c r="C8" s="16" t="s">
+        <v>12</v>
+      </c>
+      <c r="D8" s="12">
+        <v>4</v>
+      </c>
+      <c r="E8" s="12">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A9" s="13">
+        <v>43590</v>
+      </c>
+      <c r="B9" s="16" t="s">
+        <v>21</v>
+      </c>
+      <c r="C9" s="16" t="s">
+        <v>29</v>
+      </c>
+      <c r="D9" s="12">
+        <v>4</v>
+      </c>
+      <c r="E9" s="12">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A10" s="13">
+        <v>43622</v>
+      </c>
+      <c r="B10" s="16" t="s">
+        <v>8</v>
+      </c>
+      <c r="C10" s="16" t="s">
+        <v>12</v>
+      </c>
+      <c r="D10" s="12">
+        <v>6</v>
+      </c>
+      <c r="E10" s="12">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A11" s="13">
+        <v>43622</v>
+      </c>
+      <c r="B11" s="16" t="s">
+        <v>21</v>
+      </c>
+      <c r="C11" s="16" t="s">
+        <v>22</v>
+      </c>
+      <c r="D11" s="12">
+        <v>3</v>
+      </c>
+      <c r="E11" s="12">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A12" s="13">
+        <v>43652</v>
+      </c>
+      <c r="B12" s="17" t="s">
+        <v>8</v>
+      </c>
+      <c r="C12" s="17" t="s">
         <v>13</v>
-      </c>
-      <c r="D8" s="12">
-        <v>2</v>
-      </c>
-      <c r="E8" s="12">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5">
-      <c r="A9" s="20">
-        <v>43619</v>
-      </c>
-      <c r="B9" s="18" t="s">
-        <v>9</v>
-      </c>
-      <c r="C9" s="18" t="s">
-        <v>14</v>
-      </c>
-      <c r="D9" s="11" t="s">
-        <v>15</v>
-      </c>
-      <c r="E9" s="11" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5">
-      <c r="A10" s="13">
-        <v>43591</v>
-      </c>
-      <c r="B10" s="18" t="s">
-        <v>9</v>
-      </c>
-      <c r="C10" s="18" t="s">
-        <v>13</v>
-      </c>
-      <c r="D10" s="11">
-        <v>3</v>
-      </c>
-      <c r="E10" s="11">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5">
-      <c r="A11" s="13">
-        <v>43652</v>
-      </c>
-      <c r="B11" s="17" t="s">
-        <v>16</v>
-      </c>
-      <c r="C11" s="17" t="s">
-        <v>25</v>
-      </c>
-      <c r="D11" s="12">
-        <v>2</v>
-      </c>
-      <c r="E11" s="12">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5">
-      <c r="A12" s="13">
-        <v>43683</v>
-      </c>
-      <c r="B12" s="18" t="s">
-        <v>16</v>
-      </c>
-      <c r="C12" s="18" t="s">
-        <v>26</v>
       </c>
       <c r="D12" s="11">
         <v>2</v>
       </c>
       <c r="E12" s="11">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5">
-      <c r="A13" s="13"/>
-      <c r="B13" s="4"/>
-      <c r="C13" s="4"/>
-      <c r="D13" s="11"/>
-      <c r="E13" s="11"/>
-    </row>
-    <row r="14" spans="1:5">
-      <c r="A14" s="13"/>
-      <c r="B14" s="3"/>
-      <c r="C14" s="3"/>
-      <c r="D14" s="12"/>
-      <c r="E14" s="12"/>
-    </row>
-    <row r="15" spans="1:5">
-      <c r="A15" s="13"/>
-      <c r="B15" s="4"/>
-      <c r="C15" s="4"/>
-      <c r="D15" s="11"/>
-      <c r="E15" s="11"/>
-    </row>
-    <row r="16" spans="1:5">
-      <c r="A16" s="13"/>
-      <c r="B16" s="3"/>
-      <c r="C16" s="3"/>
-      <c r="D16" s="12"/>
-      <c r="E16" s="12"/>
-    </row>
-    <row r="17" spans="1:5">
-      <c r="A17" s="13"/>
-      <c r="B17" s="4"/>
-      <c r="C17" s="4"/>
-      <c r="D17" s="11"/>
-      <c r="E17" s="11"/>
-    </row>
-    <row r="18" spans="1:5">
-      <c r="A18" s="13"/>
-      <c r="B18" s="3"/>
-      <c r="C18" s="3"/>
-      <c r="D18" s="12"/>
-      <c r="E18" s="12"/>
-    </row>
-    <row r="19" spans="1:5">
-      <c r="A19" s="13"/>
-      <c r="B19" s="4"/>
-      <c r="C19" s="4"/>
-      <c r="D19" s="11"/>
-      <c r="E19" s="11"/>
-    </row>
-    <row r="20" spans="1:5">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A13" s="13">
+        <v>43652</v>
+      </c>
+      <c r="B13" s="17" t="s">
+        <v>21</v>
+      </c>
+      <c r="C13" s="17" t="s">
+        <v>23</v>
+      </c>
+      <c r="D13" s="11">
+        <v>4</v>
+      </c>
+      <c r="E13" s="11">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A14" s="13">
+        <v>43652</v>
+      </c>
+      <c r="B14" s="16" t="s">
+        <v>14</v>
+      </c>
+      <c r="C14" s="16" t="s">
+        <v>19</v>
+      </c>
+      <c r="D14" s="12">
+        <v>3</v>
+      </c>
+      <c r="E14" s="12">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A15" s="13">
+        <v>43683</v>
+      </c>
+      <c r="B15" s="16" t="s">
+        <v>14</v>
+      </c>
+      <c r="C15" s="16" t="s">
+        <v>24</v>
+      </c>
+      <c r="D15" s="12">
+        <v>4</v>
+      </c>
+      <c r="E15" s="12">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A16" s="13">
+        <v>43714</v>
+      </c>
+      <c r="B16" s="16" t="s">
+        <v>14</v>
+      </c>
+      <c r="C16" s="16" t="s">
+        <v>20</v>
+      </c>
+      <c r="D16" s="12">
+        <v>4</v>
+      </c>
+      <c r="E16" s="12">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A17" s="13">
+        <v>43744</v>
+      </c>
+      <c r="B17" s="16" t="s">
+        <v>14</v>
+      </c>
+      <c r="C17" s="16" t="s">
+        <v>25</v>
+      </c>
+      <c r="D17" s="12">
+        <v>4</v>
+      </c>
+      <c r="E17" s="12">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A18" s="13" t="s">
+        <v>33</v>
+      </c>
+      <c r="B18" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="C18" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="D18" s="11">
+        <v>4</v>
+      </c>
+      <c r="E18" s="11">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A19" s="13" t="s">
+        <v>31</v>
+      </c>
+      <c r="B19" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C19" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="D19" s="12">
+        <v>4</v>
+      </c>
+      <c r="E19" s="12">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A20" s="13"/>
-      <c r="B20" s="3"/>
-      <c r="C20" s="3"/>
-      <c r="D20" s="12"/>
-      <c r="E20" s="12"/>
-    </row>
-    <row r="21" spans="1:5">
+      <c r="B20" s="4"/>
+      <c r="C20" s="4"/>
+      <c r="D20" s="11"/>
+      <c r="E20" s="11"/>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A21" s="13"/>
-      <c r="B21" s="4"/>
-      <c r="C21" s="4"/>
-      <c r="D21" s="11"/>
-      <c r="E21" s="11"/>
-    </row>
-    <row r="22" spans="1:5">
+      <c r="B21" s="3"/>
+      <c r="C21" s="3"/>
+      <c r="D21" s="12"/>
+      <c r="E21" s="12"/>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A22" s="13"/>
-      <c r="B22" s="3"/>
-      <c r="C22" s="3"/>
-      <c r="D22" s="12"/>
-      <c r="E22" s="12"/>
-    </row>
-    <row r="23" spans="1:5">
+      <c r="B22" s="4"/>
+      <c r="C22" s="4"/>
+      <c r="D22" s="11"/>
+      <c r="E22" s="11"/>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A23" s="13"/>
-      <c r="B23" s="4"/>
-      <c r="C23" s="4"/>
-      <c r="D23" s="11"/>
-      <c r="E23" s="11"/>
-    </row>
-    <row r="24" spans="1:5">
+      <c r="B23" s="3"/>
+      <c r="C23" s="3"/>
+      <c r="D23" s="12"/>
+      <c r="E23" s="12"/>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A24" s="13"/>
-      <c r="B24" s="3"/>
-      <c r="C24" s="3"/>
-      <c r="D24" s="12"/>
-      <c r="E24" s="12"/>
-    </row>
-    <row r="25" spans="1:5">
+      <c r="B24" s="4"/>
+      <c r="C24" s="4"/>
+      <c r="D24" s="11"/>
+      <c r="E24" s="11"/>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A25" s="13"/>
-      <c r="B25" s="4"/>
-      <c r="C25" s="4"/>
-      <c r="D25" s="11"/>
-      <c r="E25" s="11"/>
-    </row>
-    <row r="26" spans="1:5">
+      <c r="B25" s="3"/>
+      <c r="C25" s="3"/>
+      <c r="D25" s="12"/>
+      <c r="E25" s="12"/>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A26" s="13"/>
-      <c r="B26" s="3"/>
-      <c r="C26" s="3"/>
-      <c r="D26" s="12"/>
-      <c r="E26" s="12"/>
-    </row>
-    <row r="27" spans="1:5">
+      <c r="B26" s="4"/>
+      <c r="C26" s="4"/>
+      <c r="D26" s="11"/>
+      <c r="E26" s="11"/>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A27" s="13"/>
-      <c r="B27" s="4"/>
-      <c r="C27" s="4"/>
-      <c r="D27" s="11"/>
-      <c r="E27" s="11"/>
-    </row>
-    <row r="28" spans="1:5">
+      <c r="B27" s="3"/>
+      <c r="C27" s="3"/>
+      <c r="D27" s="12"/>
+      <c r="E27" s="12"/>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A28" s="13"/>
-      <c r="B28" s="3"/>
-      <c r="C28" s="3"/>
-      <c r="D28" s="12"/>
-      <c r="E28" s="12"/>
-    </row>
-    <row r="29" spans="1:5">
+      <c r="B28" s="4"/>
+      <c r="C28" s="4"/>
+      <c r="D28" s="11"/>
+      <c r="E28" s="11"/>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A29" s="13"/>
-      <c r="B29" s="4"/>
-      <c r="C29" s="4"/>
-      <c r="D29" s="11"/>
-      <c r="E29" s="11"/>
-    </row>
-    <row r="30" spans="1:5">
+      <c r="B29" s="3"/>
+      <c r="C29" s="3"/>
+      <c r="D29" s="12"/>
+      <c r="E29" s="12"/>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A30" s="13"/>
-      <c r="B30" s="3"/>
-      <c r="C30" s="3"/>
-      <c r="D30" s="12"/>
-      <c r="E30" s="12"/>
-    </row>
-    <row r="31" spans="1:5">
+      <c r="B30" s="4"/>
+      <c r="C30" s="4"/>
+      <c r="D30" s="11"/>
+      <c r="E30" s="11"/>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A31" s="13"/>
-      <c r="B31" s="4"/>
-      <c r="C31" s="4"/>
-      <c r="D31" s="11"/>
-      <c r="E31" s="11"/>
-    </row>
-    <row r="32" spans="1:5">
+      <c r="B31" s="3"/>
+      <c r="C31" s="3"/>
+      <c r="D31" s="12"/>
+      <c r="E31" s="12"/>
+    </row>
+    <row r="32" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A32" s="13"/>
-      <c r="B32" s="3"/>
-      <c r="C32" s="3"/>
-      <c r="D32" s="12"/>
-      <c r="E32" s="12"/>
-    </row>
-    <row r="33" spans="1:5" ht="13.5" thickBot="1">
-      <c r="A33" s="13"/>
-      <c r="B33" s="5"/>
-      <c r="C33" s="5"/>
-      <c r="D33" s="11"/>
-      <c r="E33" s="11"/>
-    </row>
-    <row r="35" spans="1:5">
-      <c r="A35" s="1"/>
-      <c r="B35" s="1"/>
+      <c r="B32" s="5"/>
+      <c r="C32" s="5"/>
+      <c r="D32" s="11"/>
+      <c r="E32" s="11"/>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A34" s="1"/>
+      <c r="B34" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/tuntilistat.xlsx
+++ b/tuntilistat.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21811"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21917"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\TempUserProfiles\NetworkService\AppData\Local\Packages\oice_16_974fa576_32c1d314_2591\AC\Temp\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="567" documentId="11_0C7B0D2AB049D8B0143514B47C17A181B8EA27A1" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{5762ACFA-19AC-47C9-ABDC-59DC23E99999}"/>
+  <xr:revisionPtr revIDLastSave="729" documentId="11_0C7B0D2AB049D8B0143514B47C17A181B8EA27A1" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{F152A4BF-A8B5-4B6B-8C0D-284A90A4649D}"/>
   <bookViews>
     <workbookView xWindow="480" yWindow="30" windowWidth="11340" windowHeight="9360" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="124" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="183" uniqueCount="72">
   <si>
     <t>Tuntilista</t>
   </si>
@@ -109,49 +109,142 @@
     <t>Videon käsikirjoitus</t>
   </si>
   <si>
+    <t>Videon kuvaus harjoittelua</t>
+  </si>
+  <si>
+    <t>10.6.2019</t>
+  </si>
+  <si>
+    <t>Toteutus</t>
+  </si>
+  <si>
+    <t>Ohjelmistojen lataaminen</t>
+  </si>
+  <si>
+    <t>toteutus</t>
+  </si>
+  <si>
+    <t>Ohjelmistojan oppiminen</t>
+  </si>
+  <si>
+    <t>Videon 1 suunittelu</t>
+  </si>
+  <si>
+    <t>Videon 2 suunnittelu</t>
+  </si>
+  <si>
+    <t>11.6.2019</t>
+  </si>
+  <si>
+    <t>Videon 1 kuvaaminen</t>
+  </si>
+  <si>
+    <t>12.6.2019</t>
+  </si>
+  <si>
+    <t>Videon 2 kuvaaminen</t>
+  </si>
+  <si>
+    <t>14.6.2019</t>
+  </si>
+  <si>
+    <t>Videon 1 uudelleen kuvaaminen</t>
+  </si>
+  <si>
+    <t>Lisäsisällön miettinen</t>
+  </si>
+  <si>
+    <t>19.6.2019</t>
+  </si>
+  <si>
+    <t>Lisäsisällön suunnittelu</t>
+  </si>
+  <si>
+    <t>Loppuraportti</t>
+  </si>
+  <si>
+    <t>20.6.2019</t>
+  </si>
+  <si>
+    <t>Videon 2 uudelleen kuvaaminen</t>
+  </si>
+  <si>
+    <t>Yhteensä</t>
+  </si>
+  <si>
+    <t>1.7.2019</t>
+  </si>
+  <si>
+    <t>OBS videon valmistelu</t>
+  </si>
+  <si>
+    <t>3.7.2019</t>
+  </si>
+  <si>
+    <t>OBS videon kuvaus</t>
+  </si>
+  <si>
+    <t>27.7.2019</t>
+  </si>
+  <si>
+    <t>28.7.2019</t>
+  </si>
+  <si>
+    <t>Severi lillkåll</t>
+  </si>
+  <si>
     <t>Videon editointi harjoittelua</t>
   </si>
   <si>
-    <t>10.6.2019</t>
-  </si>
-  <si>
-    <t>Toteutus</t>
-  </si>
-  <si>
-    <t>Videon 1 suunittelu</t>
-  </si>
-  <si>
-    <t>Videon 2 suunnittelu</t>
-  </si>
-  <si>
-    <t>11.6.2019</t>
-  </si>
-  <si>
-    <t>Videon 1 kuvaaminen</t>
-  </si>
-  <si>
-    <t>12.6.2019</t>
-  </si>
-  <si>
-    <t>Videon 2 kuvaaminen</t>
-  </si>
-  <si>
-    <t>14.6.2019</t>
-  </si>
-  <si>
-    <t>Videon 1 uudelleen kuvaaminen</t>
-  </si>
-  <si>
-    <t>Severi lillkåll</t>
-  </si>
-  <si>
     <t>Videon 1 editointi</t>
   </si>
   <si>
+    <t>yhteensä</t>
+  </si>
+  <si>
     <t>Videon 2 editointi</t>
   </si>
   <si>
     <t>Videon 1 uudelleen editointi</t>
+  </si>
+  <si>
+    <t>Lisäsisällön miettimistä</t>
+  </si>
+  <si>
+    <t>Lisäsisällön suunnittelua</t>
+  </si>
+  <si>
+    <t>24.6.2019</t>
+  </si>
+  <si>
+    <t>Videon 2 uudelleen editointi</t>
+  </si>
+  <si>
+    <t>loppuraportti</t>
+  </si>
+  <si>
+    <t>4.7.2019</t>
+  </si>
+  <si>
+    <t>Hitfilms tutorial video kuvaus</t>
+  </si>
+  <si>
+    <t>5.7.2019</t>
+  </si>
+  <si>
+    <t>Hitfilms tutorial videon editointi</t>
+  </si>
+  <si>
+    <t>11.7.2019</t>
+  </si>
+  <si>
+    <t>Obs video editointi</t>
+  </si>
+  <si>
+    <t>Loppusuunitelma</t>
+  </si>
+  <si>
+    <t>Loppu-dokumentti</t>
   </si>
 </sst>
 </file>
@@ -669,10 +762,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F41"/>
+  <dimension ref="A1:I41"/>
   <sheetViews>
-    <sheetView topLeftCell="A6" workbookViewId="0">
-      <selection activeCell="F23" sqref="F23"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I30" sqref="I30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
@@ -682,6 +775,7 @@
     <col min="3" max="3" width="29.28515625" customWidth="1"/>
     <col min="4" max="4" width="18.42578125" style="10" customWidth="1"/>
     <col min="5" max="5" width="18" style="10" customWidth="1"/>
+    <col min="8" max="8" width="11.85546875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="20.25">
@@ -918,7 +1012,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="17" spans="1:6">
+    <row r="17" spans="1:9">
       <c r="A17" s="16" t="s">
         <v>24</v>
       </c>
@@ -935,7 +1029,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="18" spans="1:6">
+    <row r="18" spans="1:9">
       <c r="A18" s="16" t="s">
         <v>24</v>
       </c>
@@ -952,43 +1046,43 @@
         <v>4</v>
       </c>
     </row>
-    <row r="19" spans="1:6">
+    <row r="19" spans="1:9">
       <c r="A19" s="16" t="s">
         <v>27</v>
       </c>
-      <c r="B19" s="14" t="s">
-        <v>28</v>
-      </c>
-      <c r="C19" s="14" t="s">
+      <c r="B19" s="15" t="s">
+        <v>28</v>
+      </c>
+      <c r="C19" s="15" t="s">
         <v>29</v>
       </c>
-      <c r="D19" s="12">
-        <v>2</v>
-      </c>
-      <c r="E19" s="12">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6">
+      <c r="D19" s="11">
+        <v>1</v>
+      </c>
+      <c r="E19" s="11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9">
       <c r="A20" s="16" t="s">
         <v>27</v>
       </c>
-      <c r="B20" s="14" t="s">
-        <v>28</v>
-      </c>
-      <c r="C20" s="14" t="s">
+      <c r="B20" s="15" t="s">
         <v>30</v>
       </c>
-      <c r="D20" s="12">
-        <v>3</v>
-      </c>
-      <c r="E20" s="12">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6">
+      <c r="C20" s="15" t="s">
+        <v>31</v>
+      </c>
+      <c r="D20" s="11">
+        <v>1</v>
+      </c>
+      <c r="E20" s="11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9">
       <c r="A21" s="16" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="B21" s="14" t="s">
         <v>28</v>
@@ -997,112 +1091,226 @@
         <v>32</v>
       </c>
       <c r="D21" s="12">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E21" s="12">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9">
       <c r="A22" s="16" t="s">
+        <v>27</v>
+      </c>
+      <c r="B22" s="14" t="s">
+        <v>28</v>
+      </c>
+      <c r="C22" s="14" t="s">
         <v>33</v>
       </c>
-      <c r="B22" s="14" t="s">
-        <v>28</v>
-      </c>
-      <c r="C22" s="14" t="s">
+      <c r="D22" s="12">
+        <v>4</v>
+      </c>
+      <c r="E22" s="12">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9">
+      <c r="A23" s="16" t="s">
         <v>34</v>
       </c>
-      <c r="D22" s="12">
+      <c r="B23" s="14" t="s">
+        <v>28</v>
+      </c>
+      <c r="C23" s="14" t="s">
+        <v>35</v>
+      </c>
+      <c r="D23" s="12">
+        <v>4</v>
+      </c>
+      <c r="E23" s="12">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9">
+      <c r="A24" s="16" t="s">
+        <v>36</v>
+      </c>
+      <c r="B24" s="14" t="s">
+        <v>28</v>
+      </c>
+      <c r="C24" s="14" t="s">
+        <v>37</v>
+      </c>
+      <c r="D24" s="12">
         <v>3</v>
       </c>
-      <c r="E22" s="12">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="23" spans="1:6">
-      <c r="A23" s="13" t="s">
-        <v>35</v>
-      </c>
-      <c r="B23" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="C23" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="D23" s="11">
-        <v>2</v>
-      </c>
-      <c r="E23" s="11">
-        <v>2</v>
-      </c>
-      <c r="F23">
-        <f>D7+D8+D9+D10+D11+D13+D14+D17+D18+D16+D15+D6+D12</f>
+      <c r="E24" s="12">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9">
+      <c r="A25" s="16" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="24" spans="1:6">
-      <c r="A24" s="13"/>
-      <c r="B24" s="3"/>
-      <c r="C24" s="3"/>
-      <c r="D24" s="12"/>
-      <c r="E24" s="12"/>
-    </row>
-    <row r="25" spans="1:6">
-      <c r="A25" s="13"/>
-      <c r="B25" s="3"/>
-      <c r="C25" s="3"/>
-      <c r="D25" s="12"/>
-      <c r="E25" s="12"/>
-    </row>
-    <row r="26" spans="1:6">
-      <c r="A26" s="13"/>
-      <c r="B26" s="4"/>
-      <c r="C26" s="4"/>
-      <c r="D26" s="11"/>
-      <c r="E26" s="11"/>
-    </row>
-    <row r="27" spans="1:6">
-      <c r="A27" s="13"/>
-      <c r="B27" s="3"/>
-      <c r="C27" s="3"/>
-      <c r="D27" s="12"/>
-      <c r="E27" s="12"/>
-    </row>
-    <row r="28" spans="1:6">
-      <c r="A28" s="13"/>
-      <c r="B28" s="4"/>
-      <c r="C28" s="4"/>
-      <c r="D28" s="11"/>
-      <c r="E28" s="11"/>
-    </row>
-    <row r="29" spans="1:6">
-      <c r="A29" s="13"/>
-      <c r="B29" s="3"/>
-      <c r="C29" s="3"/>
-      <c r="D29" s="12"/>
-      <c r="E29" s="12"/>
-    </row>
-    <row r="30" spans="1:6">
-      <c r="A30" s="13"/>
-      <c r="B30" s="4"/>
-      <c r="C30" s="4"/>
-      <c r="D30" s="11"/>
-      <c r="E30" s="11"/>
-    </row>
-    <row r="31" spans="1:6">
-      <c r="A31" s="13"/>
-      <c r="B31" s="3"/>
-      <c r="C31" s="3"/>
-      <c r="D31" s="12"/>
-      <c r="E31" s="12"/>
-    </row>
-    <row r="32" spans="1:6">
-      <c r="A32" s="13"/>
-      <c r="B32" s="4"/>
-      <c r="C32" s="4"/>
-      <c r="D32" s="11"/>
-      <c r="E32" s="11"/>
+      <c r="B25" s="14" t="s">
+        <v>28</v>
+      </c>
+      <c r="C25" s="15" t="s">
+        <v>39</v>
+      </c>
+      <c r="D25" s="11">
+        <v>1</v>
+      </c>
+      <c r="E25" s="11">
+        <v>1</v>
+      </c>
+      <c r="F25" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9">
+      <c r="A26" s="13" t="s">
+        <v>38</v>
+      </c>
+      <c r="B26" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="C26" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="D26" s="12">
+        <v>3</v>
+      </c>
+      <c r="E26" s="12">
+        <v>3</v>
+      </c>
+      <c r="F26">
+        <f>D6+D7+D8+D9+D10+D11+D12+D13+D14+D15+D16+D17+D18</f>
+        <v>38</v>
+      </c>
+      <c r="G26" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9">
+      <c r="A27" s="13" t="s">
+        <v>41</v>
+      </c>
+      <c r="B27" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="C27" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="D27" s="12">
+        <v>1</v>
+      </c>
+      <c r="E27" s="12">
+        <v>1</v>
+      </c>
+      <c r="G27">
+        <f>E21+E22+E23+E24+E25+E26+E27+E28+E29+E30</f>
+        <v>26</v>
+      </c>
+      <c r="H27" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9">
+      <c r="A28" s="13" t="s">
+        <v>44</v>
+      </c>
+      <c r="B28" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="C28" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="D28" s="11">
+        <v>2</v>
+      </c>
+      <c r="E28" s="11">
+        <v>2</v>
+      </c>
+      <c r="H28">
+        <f>E31+E32</f>
+        <v>8</v>
+      </c>
+      <c r="I28" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9">
+      <c r="A29" s="13" t="s">
+        <v>47</v>
+      </c>
+      <c r="B29" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="C29" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="D29" s="12">
+        <v>2</v>
+      </c>
+      <c r="E29" s="12">
+        <v>2</v>
+      </c>
+      <c r="I29">
+        <f>F26+G27+H28</f>
+        <v>72</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9">
+      <c r="A30" s="13" t="s">
+        <v>49</v>
+      </c>
+      <c r="B30" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="C30" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="D30" s="11">
+        <v>3</v>
+      </c>
+      <c r="E30" s="11">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9">
+      <c r="A31" s="13" t="s">
+        <v>51</v>
+      </c>
+      <c r="B31" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="C31" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="D31" s="12">
+        <v>4</v>
+      </c>
+      <c r="E31" s="12">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9">
+      <c r="A32" s="13" t="s">
+        <v>52</v>
+      </c>
+      <c r="B32" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="C32" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="D32" s="12">
+        <v>4</v>
+      </c>
+      <c r="E32" s="12">
+        <v>4</v>
+      </c>
     </row>
     <row r="33" spans="1:5">
       <c r="A33" s="13"/>
@@ -1171,10 +1379,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:F34"/>
+  <dimension ref="A1:I34"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
-      <selection activeCell="H23" sqref="H23"/>
+    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="I28" sqref="I28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
@@ -1201,7 +1409,7 @@
         <v>1</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>37</v>
+        <v>53</v>
       </c>
     </row>
     <row r="5" spans="1:5" ht="13.5" thickTop="1">
@@ -1408,7 +1616,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="17" spans="1:6">
+    <row r="17" spans="1:9">
       <c r="A17" s="16" t="s">
         <v>24</v>
       </c>
@@ -1425,7 +1633,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="18" spans="1:6">
+    <row r="18" spans="1:9">
       <c r="A18" s="16" t="s">
         <v>24</v>
       </c>
@@ -1433,7 +1641,7 @@
         <v>9</v>
       </c>
       <c r="C18" s="15" t="s">
-        <v>26</v>
+        <v>54</v>
       </c>
       <c r="D18" s="11">
         <v>4</v>
@@ -1442,7 +1650,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="19" spans="1:6">
+    <row r="19" spans="1:9">
       <c r="A19" s="16" t="s">
         <v>27</v>
       </c>
@@ -1450,7 +1658,7 @@
         <v>28</v>
       </c>
       <c r="C19" s="14" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="D19" s="12">
         <v>3</v>
@@ -1459,7 +1667,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="20" spans="1:6">
+    <row r="20" spans="1:9">
       <c r="A20" s="16" t="s">
         <v>27</v>
       </c>
@@ -1467,7 +1675,7 @@
         <v>28</v>
       </c>
       <c r="C20" s="14" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="D20" s="12">
         <v>4</v>
@@ -1476,118 +1684,222 @@
         <v>4</v>
       </c>
     </row>
-    <row r="21" spans="1:6">
+    <row r="21" spans="1:9">
       <c r="A21" s="16" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="B21" s="14" t="s">
         <v>28</v>
       </c>
       <c r="C21" s="14" t="s">
+        <v>55</v>
+      </c>
+      <c r="D21" s="12">
+        <v>4</v>
+      </c>
+      <c r="E21" s="12">
+        <v>4</v>
+      </c>
+      <c r="F21" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9">
+      <c r="A22" s="16" t="s">
+        <v>36</v>
+      </c>
+      <c r="B22" s="14" t="s">
+        <v>28</v>
+      </c>
+      <c r="C22" s="14" t="s">
+        <v>57</v>
+      </c>
+      <c r="D22" s="12">
+        <v>3</v>
+      </c>
+      <c r="E22" s="12">
+        <v>3</v>
+      </c>
+      <c r="F22">
+        <f>E6+E7+E8+E9+E10+E11+E12+E13+E14+E15+E16+E17+E18+E19+E20+E21+E22+E23+E24+E25+E26+E27+E28+E29+E30+E31</f>
+        <v>72</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9">
+      <c r="A23" s="13" t="s">
         <v>38</v>
       </c>
-      <c r="D21" s="12">
-        <v>4</v>
-      </c>
-      <c r="E21" s="12">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6">
-      <c r="A22" s="16" t="s">
-        <v>33</v>
-      </c>
-      <c r="B22" s="14" t="s">
-        <v>28</v>
-      </c>
-      <c r="C22" s="14" t="s">
-        <v>39</v>
-      </c>
-      <c r="D22" s="12">
-        <v>4</v>
-      </c>
-      <c r="E22" s="12">
-        <v>4</v>
-      </c>
-      <c r="F22">
-        <f>E6+E7+E8+E9+E10+E11+E12+E13+E14+E15+E16+E17+E18+E19+E20+E21+E22</f>
-        <v>53</v>
-      </c>
-    </row>
-    <row r="23" spans="1:6">
-      <c r="A23" s="13" t="s">
-        <v>35</v>
-      </c>
       <c r="B23" s="15" t="s">
         <v>28</v>
       </c>
       <c r="C23" s="15" t="s">
-        <v>40</v>
+        <v>58</v>
       </c>
       <c r="D23" s="11">
+        <v>1</v>
+      </c>
+      <c r="E23" s="11">
+        <v>1</v>
+      </c>
+      <c r="G23" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9">
+      <c r="A24" s="13" t="s">
+        <v>41</v>
+      </c>
+      <c r="B24" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="C24" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="D24" s="12">
         <v>3</v>
       </c>
-      <c r="E23" s="11">
+      <c r="E24" s="12">
         <v>3</v>
       </c>
-    </row>
-    <row r="24" spans="1:6">
-      <c r="A24" s="13"/>
-      <c r="B24" s="4"/>
-      <c r="C24" s="4"/>
-      <c r="D24" s="11"/>
-      <c r="E24" s="11"/>
-    </row>
-    <row r="25" spans="1:6">
-      <c r="A25" s="13"/>
-      <c r="B25" s="3"/>
-      <c r="C25" s="3"/>
-      <c r="D25" s="12"/>
-      <c r="E25" s="12"/>
-    </row>
-    <row r="26" spans="1:6">
-      <c r="A26" s="13"/>
-      <c r="B26" s="4"/>
-      <c r="C26" s="4"/>
-      <c r="D26" s="11"/>
-      <c r="E26" s="11"/>
-    </row>
-    <row r="27" spans="1:6">
-      <c r="A27" s="13"/>
-      <c r="B27" s="3"/>
-      <c r="C27" s="3"/>
-      <c r="D27" s="12"/>
-      <c r="E27" s="12"/>
-    </row>
-    <row r="28" spans="1:6">
-      <c r="A28" s="13"/>
-      <c r="B28" s="4"/>
-      <c r="C28" s="4"/>
-      <c r="D28" s="11"/>
-      <c r="E28" s="11"/>
-    </row>
-    <row r="29" spans="1:6">
-      <c r="A29" s="13"/>
-      <c r="B29" s="3"/>
-      <c r="C29" s="3"/>
-      <c r="D29" s="12"/>
-      <c r="E29" s="12"/>
-    </row>
-    <row r="30" spans="1:6">
-      <c r="A30" s="13"/>
-      <c r="B30" s="4"/>
-      <c r="C30" s="4"/>
-      <c r="D30" s="11"/>
-      <c r="E30" s="11"/>
-    </row>
-    <row r="31" spans="1:6">
-      <c r="A31" s="13"/>
-      <c r="B31" s="3"/>
-      <c r="C31" s="3"/>
-      <c r="D31" s="12"/>
-      <c r="E31" s="12"/>
-    </row>
-    <row r="32" spans="1:6" ht="13.5" thickBot="1">
+      <c r="G24">
+        <f>E6+E7+E8+E9+E10+E11+E12+E13+E14+E15+E16+E17+E18</f>
+        <v>38</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9">
+      <c r="A25" s="13" t="s">
+        <v>44</v>
+      </c>
+      <c r="B25" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="C25" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="D25" s="12">
+        <v>1</v>
+      </c>
+      <c r="E25" s="12">
+        <v>1</v>
+      </c>
+      <c r="G25" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9">
+      <c r="A26" s="13" t="s">
+        <v>61</v>
+      </c>
+      <c r="B26" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="C26" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="D26" s="11">
+        <v>2</v>
+      </c>
+      <c r="E26" s="11">
+        <v>2</v>
+      </c>
+      <c r="G26">
+        <f>E19+E20+E21+E22+E23+E24+E25+E26+E27+E28+E29</f>
+        <v>26</v>
+      </c>
+      <c r="I26" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9">
+      <c r="A27" s="13" t="s">
+        <v>64</v>
+      </c>
+      <c r="B27" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="C27" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="D27" s="12">
+        <v>1</v>
+      </c>
+      <c r="E27" s="12">
+        <v>1</v>
+      </c>
+      <c r="I27">
+        <f>E30+E31</f>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9">
+      <c r="A28" s="13" t="s">
+        <v>66</v>
+      </c>
+      <c r="B28" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="C28" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="D28" s="11">
+        <v>2</v>
+      </c>
+      <c r="E28" s="11">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9">
+      <c r="A29" s="13" t="s">
+        <v>68</v>
+      </c>
+      <c r="B29" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="C29" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="D29" s="12">
+        <v>2</v>
+      </c>
+      <c r="E29" s="12">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9">
+      <c r="A30" s="13" t="s">
+        <v>51</v>
+      </c>
+      <c r="B30" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="C30" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="D30" s="12">
+        <v>4</v>
+      </c>
+      <c r="E30" s="12">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9">
+      <c r="A31" s="13" t="s">
+        <v>52</v>
+      </c>
+      <c r="B31" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="C31" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="D31" s="12">
+        <v>4</v>
+      </c>
+      <c r="E31" s="12">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9" ht="13.5" thickBot="1">
       <c r="A32" s="13"/>
       <c r="B32" s="5"/>
       <c r="C32" s="5"/>
